--- a/26sep2022/Date.xlsx
+++ b/26sep2022/Date.xlsx
@@ -387,7 +387,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
